--- a/biology/Botanique/Opuntia_microdasys/Opuntia_microdasys.xlsx
+++ b/biology/Botanique/Opuntia_microdasys/Opuntia_microdasys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Opuntia microdasys est une espèce du genre Opuntia de la famille des Cactaceae. Elle est originaire du centre et du Nord du Mexique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Opuntia microdasys forme des buissons de à 90 à 150 cm de haut, parfois jusqu'à 2 mètres. Avec des cladodes de à 6 à 15 cm de long et à 4 à 12 cm de large.
 Opuntia microdasys ne porte pas d'épines, mais des touffes de glochides de à 8 à 15 mm de long. Ils se détachent facilement et restent fichés dans la peau en provoquant des irritations. D'où la nécessité de précautions pour manipuler la plante. C'est cependant une plante de collections répandue, car facile à cultiver.
@@ -544,7 +558,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture est facile. Le mode de multiplication le plus facile est le bouturage des cladodes.
 </t>
@@ -575,7 +591,9 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Des variétés présentent des couleurs différentes de glochides : le plus souvent jaune clair, mais aussi blancs ou rougeâtres.
 Opuntia microdasys var. albatus : glochides souples inoffensifs.
